--- a/1/2/Agregados monetarios 1965 a 2021 - Mensual.xlsx
+++ b/1/2/Agregados monetarios 1965 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="672">
   <si>
     <t>Serie</t>
   </si>
@@ -2027,6 +2027,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -2384,7 +2387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D668"/>
+  <dimension ref="A1:D669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10279,7 +10282,7 @@
         <v>164609</v>
       </c>
       <c r="D667">
-        <v>277049</v>
+        <v>277200</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -10290,10 +10293,24 @@
         <v>79244</v>
       </c>
       <c r="C668">
-        <v>166429</v>
+        <v>166713</v>
       </c>
       <c r="D668">
-        <v>280147</v>
+        <v>280397</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4">
+      <c r="A669" t="s">
+        <v>671</v>
+      </c>
+      <c r="B669">
+        <v>80305</v>
+      </c>
+      <c r="C669">
+        <v>169328</v>
+      </c>
+      <c r="D669">
+        <v>285924</v>
       </c>
     </row>
   </sheetData>

--- a/1/2/Agregados monetarios 1965 a 2021 - Mensual.xlsx
+++ b/1/2/Agregados monetarios 1965 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="673">
   <si>
     <t>Serie</t>
   </si>
@@ -2030,6 +2030,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D669"/>
+  <dimension ref="A1:D670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10296,7 +10299,7 @@
         <v>166713</v>
       </c>
       <c r="D668">
-        <v>280397</v>
+        <v>280512</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -10307,10 +10310,24 @@
         <v>80305</v>
       </c>
       <c r="C669">
-        <v>169328</v>
+        <v>170921</v>
       </c>
       <c r="D669">
-        <v>285924</v>
+        <v>286767</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4">
+      <c r="A670" t="s">
+        <v>672</v>
+      </c>
+      <c r="B670">
+        <v>80283</v>
+      </c>
+      <c r="C670">
+        <v>172452</v>
+      </c>
+      <c r="D670">
+        <v>291160</v>
       </c>
     </row>
   </sheetData>

--- a/1/2/Agregados monetarios 1965 a 2021 - Mensual.xlsx
+++ b/1/2/Agregados monetarios 1965 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="674">
   <si>
     <t>Serie</t>
   </si>
@@ -2033,6 +2033,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D670"/>
+  <dimension ref="A1:D671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10313,7 +10316,7 @@
         <v>170921</v>
       </c>
       <c r="D669">
-        <v>286767</v>
+        <v>286840</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -10324,10 +10327,24 @@
         <v>80283</v>
       </c>
       <c r="C670">
-        <v>172452</v>
+        <v>173293</v>
       </c>
       <c r="D670">
-        <v>291160</v>
+        <v>292394</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4">
+      <c r="A671" t="s">
+        <v>673</v>
+      </c>
+      <c r="B671">
+        <v>79767</v>
+      </c>
+      <c r="C671">
+        <v>173194</v>
+      </c>
+      <c r="D671">
+        <v>295207</v>
       </c>
     </row>
   </sheetData>

--- a/1/2/Agregados monetarios 1965 a 2021 - Mensual.xlsx
+++ b/1/2/Agregados monetarios 1965 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="675">
   <si>
     <t>Serie</t>
   </si>
@@ -2036,6 +2036,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -2393,7 +2396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D671"/>
+  <dimension ref="A1:D672"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10330,7 +10333,7 @@
         <v>173293</v>
       </c>
       <c r="D670">
-        <v>292394</v>
+        <v>292442</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -10341,10 +10344,24 @@
         <v>79767</v>
       </c>
       <c r="C671">
-        <v>173194</v>
+        <v>174019</v>
       </c>
       <c r="D671">
-        <v>295207</v>
+        <v>295566</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4">
+      <c r="A672" t="s">
+        <v>674</v>
+      </c>
+      <c r="B672">
+        <v>79993</v>
+      </c>
+      <c r="C672">
+        <v>175646</v>
+      </c>
+      <c r="D672">
+        <v>299758</v>
       </c>
     </row>
   </sheetData>
